--- a/metadata/13190.xlsx
+++ b/metadata/13190.xlsx
@@ -1,159 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TDO\Data Operations\WNS\Campaign Team Docs\KM+\KM+\Strata metadata uploading\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F9C66-329F-4483-9190-53FE0CB93672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AEADA8BC-6076-491D-8D2B-A669445E52A5}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Order Number:</t>
-  </si>
-  <si>
-    <t>Campaign Description:</t>
-  </si>
-  <si>
-    <t>CAPITAL-REMOD_S13190_CI_2519_DM</t>
-  </si>
-  <si>
-    <t>Mailer Name:</t>
-  </si>
-  <si>
-    <t>971 6wk Post GO Mailer</t>
-  </si>
-  <si>
-    <t>Division:</t>
-  </si>
-  <si>
-    <t>Kroger Cincinnati-Div 014</t>
-  </si>
-  <si>
-    <t>In-Home Date:</t>
-  </si>
-  <si>
-    <t>Total Number of Mailers:</t>
-  </si>
-  <si>
-    <t>Total Program Cost ($):</t>
-  </si>
-  <si>
-    <t>Coupon 1</t>
-  </si>
-  <si>
-    <t>Coupon 2</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Group #</t>
-  </si>
-  <si>
-    <t>Coupon Count</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Coupon UPC #</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Best Deal; $6 off $60, $12 off $120, $18 off $180. Valid at this store only.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9760000000800000166929</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Free Kroger 24pk Water. Valid at this location only.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9760000000800000166930</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  10/20/25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -187,36 +75,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -536,143 +483,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BC992C-B2A9-4809-A66E-29244B3B6099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="26.85546875" customWidth="1"/>
+    <col width="26.85546875" customWidth="1" min="1" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Order Number:</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>13190</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="27" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Campaign Description:</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAPITAL-REMOD_S13190_CI_2519_DM</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mailer Name:</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>971 6wk Post GO Mailer</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Division:</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Kroger Cincinnati-Div 014</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>In-Home Date:</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Total Number of Mailers:</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Total Program Cost ($):</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Coupon 1</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Coupon 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>10/20/25</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>10/20/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Group #</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Coupon Count</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>11/03/25</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>11/03/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="54" customHeight="1">
+      <c r="A11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45964</v>
-      </c>
-      <c r="E10" s="5">
-        <v>45964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Coupon UPC #</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Best Deal; $6 off $60, $12 off $120, $18 off $180. Valid at this store only.
+9760000000800000166929</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Free Kroger 24pk Water. Valid at this location only.
+9760000000800000166930</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/metadata/13190.xlsx
+++ b/metadata/13190.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -28,13 +28,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
@@ -491,7 +484,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
